--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.0653574147466</v>
+        <v>0.4181183333333333</v>
       </c>
       <c r="H2">
-        <v>23.0653574147466</v>
+        <v>1.254355</v>
       </c>
       <c r="I2">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="J2">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>70.75241247718803</v>
+        <v>3.75054151968</v>
       </c>
       <c r="R2">
-        <v>70.75241247718803</v>
+        <v>33.75487367712</v>
       </c>
       <c r="S2">
-        <v>0.2357896701789369</v>
+        <v>0.00765318067394241</v>
       </c>
       <c r="T2">
-        <v>0.2357896701789369</v>
+        <v>0.007653180673942408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.0653574147466</v>
+        <v>0.4181183333333333</v>
       </c>
       <c r="H3">
-        <v>23.0653574147466</v>
+        <v>1.254355</v>
       </c>
       <c r="I3">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="J3">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>205.7770064153907</v>
+        <v>3.768111967028889</v>
       </c>
       <c r="R3">
-        <v>205.7770064153907</v>
+        <v>33.91300770325999</v>
       </c>
       <c r="S3">
-        <v>0.6857729761333268</v>
+        <v>0.007689034112006604</v>
       </c>
       <c r="T3">
-        <v>0.6857729761333268</v>
+        <v>0.007689034112006603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.0653574147466</v>
+        <v>0.4181183333333333</v>
       </c>
       <c r="H4">
-        <v>23.0653574147466</v>
+        <v>1.254355</v>
       </c>
       <c r="I4">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="J4">
-        <v>0.951981849183412</v>
+        <v>0.01571144052599341</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>9.127761988612345</v>
+        <v>0.1809439143238889</v>
       </c>
       <c r="R4">
-        <v>9.127761988612345</v>
+        <v>1.628495228915</v>
       </c>
       <c r="S4">
-        <v>0.03041920287114823</v>
+        <v>0.0003692257400443949</v>
       </c>
       <c r="T4">
-        <v>0.03041920287114823</v>
+        <v>0.0003692257400443948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16342114288192</v>
+        <v>24.89087966666667</v>
       </c>
       <c r="H5">
-        <v>1.16342114288192</v>
+        <v>74.672639</v>
       </c>
       <c r="I5">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385497</v>
       </c>
       <c r="J5">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>3.568765534638364</v>
+        <v>223.272385372224</v>
       </c>
       <c r="R5">
-        <v>3.568765534638364</v>
+        <v>2009.451468350016</v>
       </c>
       <c r="S5">
-        <v>0.0118932771180014</v>
+        <v>0.4555992503454591</v>
       </c>
       <c r="T5">
-        <v>0.0118932771180014</v>
+        <v>0.455599250345459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.16342114288192</v>
+        <v>24.89087966666667</v>
       </c>
       <c r="H6">
-        <v>1.16342114288192</v>
+        <v>74.672639</v>
       </c>
       <c r="I6">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385497</v>
       </c>
       <c r="J6">
-        <v>0.04801815081658801</v>
+        <v>0.9353131502385496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>10.37943248299949</v>
+        <v>224.3183665114964</v>
       </c>
       <c r="R6">
-        <v>10.37943248299949</v>
+        <v>2018.865298603468</v>
       </c>
       <c r="S6">
-        <v>0.03459052315142006</v>
+        <v>0.4577336308338188</v>
       </c>
       <c r="T6">
-        <v>0.03459052315142006</v>
+        <v>0.4577336308338187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>24.89087966666667</v>
+      </c>
+      <c r="H7">
+        <v>74.672639</v>
+      </c>
+      <c r="I7">
+        <v>0.9353131502385497</v>
+      </c>
+      <c r="J7">
+        <v>0.9353131502385496</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.298273</v>
+      </c>
+      <c r="O7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q7">
+        <v>10.77171900582744</v>
+      </c>
+      <c r="R7">
+        <v>96.945471052447</v>
+      </c>
+      <c r="S7">
+        <v>0.02198026905927185</v>
+      </c>
+      <c r="T7">
+        <v>0.02198026905927185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.303350666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.910052</v>
+      </c>
+      <c r="I8">
+        <v>0.04897540923545694</v>
+      </c>
+      <c r="J8">
+        <v>0.04897540923545693</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.970048</v>
+      </c>
+      <c r="N8">
+        <v>26.910144</v>
+      </c>
+      <c r="O8">
+        <v>0.487108783009476</v>
+      </c>
+      <c r="P8">
+        <v>0.4871087830094759</v>
+      </c>
+      <c r="Q8">
+        <v>11.691118040832</v>
+      </c>
+      <c r="R8">
+        <v>105.220062367488</v>
+      </c>
+      <c r="S8">
+        <v>0.02385635199007448</v>
+      </c>
+      <c r="T8">
+        <v>0.02385635199007447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.16342114288192</v>
-      </c>
-      <c r="H7">
-        <v>1.16342114288192</v>
-      </c>
-      <c r="I7">
-        <v>0.04801815081658801</v>
-      </c>
-      <c r="J7">
-        <v>0.04801815081658801</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="N7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="O7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="P7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="Q7">
-        <v>0.4604061014010603</v>
-      </c>
-      <c r="R7">
-        <v>0.4604061014010603</v>
-      </c>
-      <c r="S7">
-        <v>0.00153435054716654</v>
-      </c>
-      <c r="T7">
-        <v>0.00153435054716654</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.303350666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.910052</v>
+      </c>
+      <c r="I9">
+        <v>0.04897540923545694</v>
+      </c>
+      <c r="J9">
+        <v>0.04897540923545693</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.012070666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.036212</v>
+      </c>
+      <c r="O9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="P9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="Q9">
+        <v>11.74588831144711</v>
+      </c>
+      <c r="R9">
+        <v>105.712994803024</v>
+      </c>
+      <c r="S9">
+        <v>0.02396811365819058</v>
+      </c>
+      <c r="T9">
+        <v>0.02396811365819058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.303350666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.910052</v>
+      </c>
+      <c r="I10">
+        <v>0.04897540923545694</v>
+      </c>
+      <c r="J10">
+        <v>0.04897540923545693</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.298273</v>
+      </c>
+      <c r="O10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q10">
+        <v>0.5640349933551111</v>
+      </c>
+      <c r="R10">
+        <v>5.076314940196</v>
+      </c>
+      <c r="S10">
+        <v>0.001150943587191877</v>
+      </c>
+      <c r="T10">
+        <v>0.001150943587191877</v>
       </c>
     </row>
   </sheetData>
